--- a/Παραδοτέο_2/gant_diagram_project_v2.xlsx
+++ b/Παραδοτέο_2/gant_diagram_project_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linos\Downloads\ΕΑΡΙΝΟ ΕΞΑΜΗΝΟ 2022\ΤΕΧΝΟΛΟΓΙΑ ΛΟΓΙΣΜΙΚΟΥ\Παραδοτέο_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B96E4B4-D175-4C41-8F13-A559A66D6476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06B3B72-4914-48D3-8265-CFA1A5C3B5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32730" yWindow="795" windowWidth="24585" windowHeight="13140" xr2:uid="{453388A2-57DA-448D-BE99-9AFEB4787BAF}"/>
+    <workbookView xWindow="135" yWindow="1950" windowWidth="16620" windowHeight="13140" xr2:uid="{453388A2-57DA-448D-BE99-9AFEB4787BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Tasks</t>
   </si>
@@ -138,33 +138,15 @@
     <t>Κωνσταντίνα</t>
   </si>
   <si>
-    <t xml:space="preserve"> Κατερίνα</t>
-  </si>
-  <si>
-    <t>Μαρία, Κατερίνα, Κωνσταντίνα</t>
-  </si>
-  <si>
     <t>Μαρία, Κατερίνα, Κωνσταντίνα, Τριαντάφυλλος</t>
   </si>
   <si>
-    <t>Customer Reservation Page</t>
-  </si>
-  <si>
-    <t>Visitor Reservation Page</t>
-  </si>
-  <si>
     <t>Logout Implementation</t>
   </si>
   <si>
     <t>Remember Me Implementation</t>
   </si>
   <si>
-    <t>Μαρία, Κατερίνα</t>
-  </si>
-  <si>
-    <t>Μαρία, Κατερίνα, Τριαντάφυλλος</t>
-  </si>
-  <si>
     <t>Sign Up (υπαλλήλου)</t>
   </si>
   <si>
@@ -184,16 +166,45 @@
   </si>
   <si>
     <t>Events Page (πελάτη/επισκέπτη)</t>
+  </si>
+  <si>
+    <t>Customer/Visitor  Reservation Page</t>
+  </si>
+  <si>
+    <t>Μαρία, Τριαντάφυλλος</t>
+  </si>
+  <si>
+    <t>269 Τ</t>
+  </si>
+  <si>
+    <t>229 Κατ</t>
+  </si>
+  <si>
+    <t>249 Μ</t>
+  </si>
+  <si>
+    <t>Μαρία, Κατερίνα, Κωνσταντίνα Τριαντάφυλλος</t>
+  </si>
+  <si>
+    <t>236 Κων</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
@@ -223,7 +234,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -302,13 +313,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Φύλλο1!$A$8:$A$48</c15:sqref>
+                    <c15:sqref>Φύλλο1!$A$8:$A$47</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Φύλλο1!$A$8:$A$48</c:f>
+              <c:f>Φύλλο1!$A$8:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>Επαφή με τον πελάτη</c:v>
                 </c:pt>
@@ -373,13 +384,13 @@
                   <c:v>Αρχική σελίδα πελάτη</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Customer Reservation Page</c:v>
+                  <c:v>Customer/Visitor  Reservation Page</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>Events Page (πελάτη/επισκέπτη)</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>My Room (Rates the room)</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Events Page (πελάτη/επισκέπτη)</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Visitor Page</c:v>
@@ -387,31 +398,28 @@
                 <c:pt idx="29">
                   <c:v>Αρχική σελίδα επισκέπτη </c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>Visitor Reservation Page</c:v>
+                <c:pt idx="31">
+                  <c:v>Logout Implementation</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Logout Implementation</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>Remember Me Implementation</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>Δοκιμές με δικά μας δεδομένα</c:v>
+                </c:pt>
                 <c:pt idx="35">
-                  <c:v>Δοκιμές με δικά μας δεδομένα</c:v>
+                  <c:v>Έγκριση από πελάτη</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>Έγκριση από πελάτη</c:v>
+                  <c:v>Δοκιμές με τα δεδομένα του πελάτη</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>Δοκιμές με τα δεδομένα του πελάτη</c:v>
+                  <c:v>Τελικές διορθώσεις</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>Τελικές διορθώσεις</c:v>
+                  <c:v>Τελική απόφαση πελάτη</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>Τελική απόφαση πελάτη</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>Εγκατάσταση στις ξενοδοχειακές μονάδες</c:v>
                 </c:pt>
               </c:strCache>
@@ -422,14 +430,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Φύλλο1!$B$8:$B$48</c15:sqref>
+                    <c15:sqref>Φύλλο1!$B$8:$B$47</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Φύλλο1!$B$8:$B$48</c:f>
+              <c:f>Φύλλο1!$B$8:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44621</c:v>
                 </c:pt>
@@ -449,79 +457,76 @@
                   <c:v>44673</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44665</c:v>
+                  <c:v>44678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44671</c:v>
+                  <c:v>44678</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44671</c:v>
+                  <c:v>44678</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44682</c:v>
+                  <c:v>44690</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44698</c:v>
+                  <c:v>44706</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44682</c:v>
+                  <c:v>44706</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44694</c:v>
+                  <c:v>44708</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44682</c:v>
+                  <c:v>44728</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44695</c:v>
+                  <c:v>44728</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44695</c:v>
+                  <c:v>44730</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44695</c:v>
+                  <c:v>44708</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44696</c:v>
+                  <c:v>44783</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44713</c:v>
+                  <c:v>44782</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44724</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="d\-mmm">
-                  <c:v>44724</c:v>
+                  <c:v>44782</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44782</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44732</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44724</c:v>
+                  <c:v>44803</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44806</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44752</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44730</c:v>
+                  <c:v>44806</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44817</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44767</c:v>
+                  <c:v>44858</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44820</c:v>
+                  <c:v>44863</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44827</c:v>
+                  <c:v>44928</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44881</c:v>
+                  <c:v>44960</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44919</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44936</c:v>
+                  <c:v>44967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,13 +569,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Φύλλο1!$A$8:$A$48</c15:sqref>
+                    <c15:sqref>Φύλλο1!$A$8:$A$47</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Φύλλο1!$A$8:$A$48</c:f>
+              <c:f>Φύλλο1!$A$8:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>Επαφή με τον πελάτη</c:v>
                 </c:pt>
@@ -635,13 +640,13 @@
                   <c:v>Αρχική σελίδα πελάτη</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Customer Reservation Page</c:v>
+                  <c:v>Customer/Visitor  Reservation Page</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>Events Page (πελάτη/επισκέπτη)</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>My Room (Rates the room)</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Events Page (πελάτη/επισκέπτη)</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Visitor Page</c:v>
@@ -649,31 +654,28 @@
                 <c:pt idx="29">
                   <c:v>Αρχική σελίδα επισκέπτη </c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>Visitor Reservation Page</c:v>
+                <c:pt idx="31">
+                  <c:v>Logout Implementation</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Logout Implementation</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>Remember Me Implementation</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>Δοκιμές με δικά μας δεδομένα</c:v>
+                </c:pt>
                 <c:pt idx="35">
-                  <c:v>Δοκιμές με δικά μας δεδομένα</c:v>
+                  <c:v>Έγκριση από πελάτη</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>Έγκριση από πελάτη</c:v>
+                  <c:v>Δοκιμές με τα δεδομένα του πελάτη</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>Δοκιμές με τα δεδομένα του πελάτη</c:v>
+                  <c:v>Τελικές διορθώσεις</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>Τελικές διορθώσεις</c:v>
+                  <c:v>Τελική απόφαση πελάτη</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>Τελική απόφαση πελάτη</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>Εγκατάσταση στις ξενοδοχειακές μονάδες</c:v>
                 </c:pt>
               </c:strCache>
@@ -684,14 +686,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Φύλλο1!$C$8:$C$54</c15:sqref>
+                    <c15:sqref>Φύλλο1!$C$8:$C$53</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Φύλλο1!$C$8:$C$48</c:f>
+              <c:f>Φύλλο1!$C$8:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -714,25 +716,25 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>30</c:v>
@@ -741,48 +743,45 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>90</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>45</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -826,13 +825,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Φύλλο1!$A$8:$A$48</c15:sqref>
+                    <c15:sqref>Φύλλο1!$A$8:$A$47</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Φύλλο1!$A$8:$A$48</c:f>
+              <c:f>Φύλλο1!$A$8:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>Επαφή με τον πελάτη</c:v>
                 </c:pt>
@@ -897,13 +896,13 @@
                   <c:v>Αρχική σελίδα πελάτη</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Customer Reservation Page</c:v>
+                  <c:v>Customer/Visitor  Reservation Page</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>Events Page (πελάτη/επισκέπτη)</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>My Room (Rates the room)</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Events Page (πελάτη/επισκέπτη)</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>Visitor Page</c:v>
@@ -911,31 +910,28 @@
                 <c:pt idx="29">
                   <c:v>Αρχική σελίδα επισκέπτη </c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>Visitor Reservation Page</c:v>
+                <c:pt idx="31">
+                  <c:v>Logout Implementation</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Logout Implementation</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>Remember Me Implementation</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>Δοκιμές με δικά μας δεδομένα</c:v>
+                </c:pt>
                 <c:pt idx="35">
-                  <c:v>Δοκιμές με δικά μας δεδομένα</c:v>
+                  <c:v>Έγκριση από πελάτη</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>Έγκριση από πελάτη</c:v>
+                  <c:v>Δοκιμές με τα δεδομένα του πελάτη</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>Δοκιμές με τα δεδομένα του πελάτη</c:v>
+                  <c:v>Τελικές διορθώσεις</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>Τελικές διορθώσεις</c:v>
+                  <c:v>Τελική απόφαση πελάτη</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>Τελική απόφαση πελάτη</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>Εγκατάσταση στις ξενοδοχειακές μονάδες</c:v>
                 </c:pt>
               </c:strCache>
@@ -946,14 +942,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Φύλλο1!$D$8:$D$52</c15:sqref>
+                    <c15:sqref>Φύλλο1!$D$8:$D$51</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Φύλλο1!$D$8:$D$48</c:f>
+              <c:f>Φύλλο1!$D$8:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -978,6 +974,9 @@
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
@@ -996,6 +995,12 @@
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1005,16 +1010,19 @@
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
@@ -1030,9 +1038,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1112,7 +1117,7 @@
         <c:axId val="1140292207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44951"/>
+          <c:max val="44981"/>
           <c:min val="44621"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1219,6 +1224,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1805,7 +1811,676 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Διάγραμμα ροής: Απόφαση 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F382A4DF-6FD3-4D5C-841D-A73A91656DFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16483853" y="6230469"/>
+          <a:ext cx="212912" cy="201706"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.31607</cdr:x>
+      <cdr:y>0.16328</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.32955</cdr:x>
+      <cdr:y>0.19036</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Διάγραμμα ροής: Απόφαση 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F382A4DF-6FD3-4D5C-841D-A73A91656DFA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4992594" y="1216211"/>
+          <a:ext cx="212912" cy="201706"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.53032</cdr:x>
+      <cdr:y>0.5093</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.54379</cdr:x>
+      <cdr:y>0.53638</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Διάγραμμα ροής: Απόφαση 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F382A4DF-6FD3-4D5C-841D-A73A91656DFA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8376771" y="3793564"/>
+          <a:ext cx="212912" cy="201706"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.951</cdr:x>
+      <cdr:y>0.95161</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96448</cdr:x>
+      <cdr:y>0.97869</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Διάγραμμα ροής: Απόφαση 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F382A4DF-6FD3-4D5C-841D-A73A91656DFA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="15021859" y="7088094"/>
+          <a:ext cx="212912" cy="201706"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.61545</cdr:x>
+      <cdr:y>0.78762</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62893</cdr:x>
+      <cdr:y>0.8147</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Διάγραμμα ροής: Απόφαση 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F382A4DF-6FD3-4D5C-841D-A73A91656DFA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="9721477" y="5866653"/>
+          <a:ext cx="212912" cy="201706"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="el-GR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2105,10 +2780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371FD69A-666B-435B-809E-68AF8330495A}">
-  <dimension ref="A6:M48"/>
+  <dimension ref="A5:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,7 +2796,21 @@
     <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2135,8 +2824,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
@@ -2149,8 +2838,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1">
@@ -2163,8 +2852,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1">
@@ -2177,8 +2866,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1">
@@ -2191,8 +2880,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1">
@@ -2205,8 +2894,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1">
@@ -2219,17 +2908,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1">
-        <v>44665</v>
+        <v>44678</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -2239,28 +2928,31 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
+      <c r="A18" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="1">
-        <v>44671</v>
+        <v>44678</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2272,81 +2964,81 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>44682</v>
+        <v>44690</v>
       </c>
       <c r="C21">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="1">
-        <v>44698</v>
+        <v>44706</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="1">
-        <v>44682</v>
+        <v>44706</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>44</v>
+      <c r="A24" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B24" s="1">
-        <v>44694</v>
+        <v>44708</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>45</v>
+      <c r="A25" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B25" s="1">
-        <v>44682</v>
+        <v>44728</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>46</v>
+      <c r="A26" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B26" s="1">
-        <v>44695</v>
+        <v>44728</v>
       </c>
       <c r="C26">
         <v>30</v>
@@ -2356,25 +3048,31 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>47</v>
+      <c r="A27" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B27" s="1">
-        <v>44695</v>
+        <v>44730</v>
       </c>
       <c r="C27">
         <v>30</v>
       </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="1">
-        <v>44695</v>
+        <v>44708</v>
       </c>
       <c r="C28">
-        <v>90</v>
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2386,56 +3084,59 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1">
-        <v>44696</v>
+        <v>44783</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>37</v>
+      <c r="A32" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B32" s="1">
-        <v>44713</v>
+        <v>44782</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>48</v>
+      <c r="A33" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B33" s="1">
-        <v>44724</v>
+        <v>44782</v>
       </c>
       <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44782</v>
+      </c>
+      <c r="C34">
         <v>20</v>
       </c>
-      <c r="D33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="2">
-        <v>44724</v>
-      </c>
-      <c r="C34">
-        <v>40</v>
+      <c r="D34" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2444,149 +3145,140 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="1">
-        <v>44732</v>
+        <v>44803</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1">
-        <v>44724</v>
-      </c>
-      <c r="C38">
-        <v>17</v>
-      </c>
-      <c r="D38" t="s">
-        <v>28</v>
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44806</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B40" s="1">
-        <v>44752</v>
+        <v>44806</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44817</v>
+      </c>
+      <c r="C42">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <v>44730</v>
-      </c>
-      <c r="C41">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
-        <v>32</v>
+      <c r="D42" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>21</v>
+      <c r="A43" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B43" s="1">
-        <v>44767</v>
+        <v>44858</v>
       </c>
       <c r="C43">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>22</v>
+      <c r="A44" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B44" s="1">
-        <v>44820</v>
+        <v>44863</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44928</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44960</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="1">
-        <v>44827</v>
-      </c>
-      <c r="C45">
-        <v>50</v>
-      </c>
-      <c r="D45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="1">
-        <v>44881</v>
-      </c>
-      <c r="C46">
-        <v>30</v>
-      </c>
-      <c r="D46" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>25</v>
+      <c r="A47" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B47" s="1">
-        <v>44919</v>
+        <v>44967</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="1">
-        <v>44936</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="D48" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>